--- a/基础题目/java常考面试题牛客.xlsx
+++ b/基础题目/java常考面试题牛客.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="12140" windowHeight="4320"/>
+    <workbookView windowWidth="18840" windowHeight="6330"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -49,7 +49,112 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -63,6 +168,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -70,126 +183,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -200,25 +193,157 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -230,151 +355,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -391,36 +384,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -439,31 +402,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -486,8 +425,62 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -496,148 +489,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="25" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="26" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -739,8 +732,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="635" y="393700"/>
-          <a:ext cx="9290685" cy="1822450"/>
+          <a:off x="635" y="381000"/>
+          <a:ext cx="10132695" cy="1758950"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -781,8 +774,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="215900" y="2254250"/>
-          <a:ext cx="9138285" cy="1949450"/>
+          <a:off x="215900" y="2178050"/>
+          <a:ext cx="9980295" cy="1879600"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -823,8 +816,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="209550" y="4457700"/>
-          <a:ext cx="9252585" cy="2406650"/>
+          <a:off x="209550" y="4298950"/>
+          <a:ext cx="10116185" cy="2324100"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -865,8 +858,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="247650" y="7092950"/>
-          <a:ext cx="9189085" cy="1828800"/>
+          <a:off x="269240" y="6845300"/>
+          <a:ext cx="10031095" cy="1758950"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -907,8 +900,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="196850" y="9169400"/>
-          <a:ext cx="9214485" cy="4629150"/>
+          <a:off x="196850" y="8845550"/>
+          <a:ext cx="10078085" cy="4464050"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -949,8 +942,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="241300" y="14046200"/>
-          <a:ext cx="9347835" cy="1625600"/>
+          <a:off x="262890" y="13544550"/>
+          <a:ext cx="10189845" cy="1568450"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -991,8 +984,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="368300" y="15906750"/>
-          <a:ext cx="9112885" cy="2082800"/>
+          <a:off x="389890" y="15341600"/>
+          <a:ext cx="9954895" cy="2006600"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1033,8 +1026,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="215900" y="18218150"/>
-          <a:ext cx="9392285" cy="1771650"/>
+          <a:off x="215900" y="17570450"/>
+          <a:ext cx="10255885" cy="1708150"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1075,8 +1068,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="254000" y="20180300"/>
-          <a:ext cx="7792085" cy="3111500"/>
+          <a:off x="275590" y="19462750"/>
+          <a:ext cx="8504555" cy="2997200"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1117,8 +1110,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="247650" y="23450550"/>
-          <a:ext cx="6306185" cy="2444750"/>
+          <a:off x="269240" y="22618700"/>
+          <a:ext cx="6867525" cy="2355850"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1159,8 +1152,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="311150" y="26117550"/>
-          <a:ext cx="9239885" cy="2628900"/>
+          <a:off x="332740" y="25190450"/>
+          <a:ext cx="10081895" cy="2533650"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1201,8 +1194,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="495300" y="28898850"/>
-          <a:ext cx="9137650" cy="3225800"/>
+          <a:off x="538480" y="27870150"/>
+          <a:ext cx="9958705" cy="3111500"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1243,8 +1236,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="425450" y="32302450"/>
-          <a:ext cx="9297035" cy="3384550"/>
+          <a:off x="447040" y="31153100"/>
+          <a:ext cx="10160635" cy="3263900"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1285,8 +1278,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="520700" y="35921950"/>
-          <a:ext cx="5562600" cy="3124200"/>
+          <a:off x="563880" y="34639250"/>
+          <a:ext cx="6059170" cy="3016250"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1591,13 +1584,13 @@
   <sheetPr/>
   <dimension ref="B1"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A7" workbookViewId="0">
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3.36363636363636" defaultRowHeight="14" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="3.36666666666667" defaultRowHeight="13.5" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="16384" width="3.36363636363636" customWidth="1"/>
+    <col min="1" max="16384" width="3.36666666666667" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:2">
@@ -1625,7 +1618,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -1642,7 +1635,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
